--- a/data/errordf.xlsx
+++ b/data/errordf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12236" uniqueCount="3394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12280" uniqueCount="3394">
   <si>
     <t>Company</t>
   </si>
@@ -51634,10 +51634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:H399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51645,9 +51645,10 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51657,8 +51658,11 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -51679,19 +51683,22 @@
         <f>COUNTIFS(Sheet2!A:A,Sheet2!F2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>3028</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -51708,8 +51715,11 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -51726,8 +51736,11 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -51744,19 +51757,22 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>3032</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -51770,8 +51786,11 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -51785,8 +51804,11 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -51800,8 +51822,11 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -51815,8 +51840,11 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -51830,8 +51858,11 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -51845,8 +51876,11 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -51860,8 +51894,11 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -51875,8 +51912,11 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -51890,19 +51930,22 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>3041</v>
       </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -51916,8 +51959,11 @@
       <c r="F18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -51931,8 +51977,11 @@
       <c r="F19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -51946,8 +51995,11 @@
       <c r="F20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -51961,8 +52013,11 @@
       <c r="F21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -51976,8 +52031,11 @@
       <c r="F22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -51991,8 +52049,11 @@
       <c r="F23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -52006,8 +52067,11 @@
       <c r="F24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -52021,8 +52085,11 @@
       <c r="F25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -52036,8 +52103,11 @@
       <c r="F26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -52054,8 +52124,11 @@
       <c r="F27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -52066,11 +52139,11 @@
       <c r="D28" t="s">
         <v>3050</v>
       </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -52084,8 +52157,11 @@
       <c r="F29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -52099,8 +52175,11 @@
       <c r="F30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -52114,8 +52193,11 @@
       <c r="F31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -52129,8 +52211,11 @@
       <c r="F32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -52144,8 +52229,11 @@
       <c r="F33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -52159,8 +52247,11 @@
       <c r="F34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -52174,8 +52265,11 @@
       <c r="F35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -52189,8 +52283,11 @@
       <c r="F36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -52204,8 +52301,11 @@
       <c r="F37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -52219,8 +52319,11 @@
       <c r="F38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -52234,8 +52337,11 @@
       <c r="F39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -52249,8 +52355,11 @@
       <c r="F40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -52264,8 +52373,11 @@
       <c r="F41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -52279,8 +52391,11 @@
       <c r="F42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -52294,8 +52409,11 @@
       <c r="F43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -52309,8 +52427,11 @@
       <c r="F44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -52324,8 +52445,11 @@
       <c r="F45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -52339,8 +52463,11 @@
       <c r="F46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -52354,8 +52481,11 @@
       <c r="F47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -52368,6 +52498,9 @@
       </c>
       <c r="F48" t="s">
         <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
